--- a/Charla HUN/Criterios de evaluación.xlsx
+++ b/Charla HUN/Criterios de evaluación.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D127022\Documents\GitHub\Taller_PI\Charla HUN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Taller_PI\Charla HUN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42DF3F4-D3ED-4B35-AE35-B74A440DB60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10260" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIS" sheetId="1" r:id="rId1"/>
     <sheet name="Gob Nav" sheetId="2" r:id="rId2"/>
+    <sheet name="Intensificación" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="182">
   <si>
     <t>Evaluación Técnica</t>
   </si>
@@ -1061,13 +1063,295 @@
   </si>
   <si>
     <t>Sí(2)/No(0)</t>
+  </si>
+  <si>
+    <t>Valoración de la calidad e interés científico</t>
+  </si>
+  <si>
+    <t>Criterio</t>
+  </si>
+  <si>
+    <t>a) Relevancia, originalidad y actualidad del tema</t>
+  </si>
+  <si>
+    <t>b) Hipótesis y objetivos</t>
+  </si>
+  <si>
+    <t>c) Metodología</t>
+  </si>
+  <si>
+    <t>Impacto previsible a corto y medio plazo de los resultados</t>
+  </si>
+  <si>
+    <t>a) Impacto del proyecto en términos de resultados en salud</t>
+  </si>
+  <si>
+    <t>b) Impacto del proyecto en términos de equidad</t>
+  </si>
+  <si>
+    <t>c) Capacidad del proyecto para mejorar la organización y gestión de los servicios sanitarios</t>
+  </si>
+  <si>
+    <t>d) Posibilidad de transferencia de los resultados del proyecto</t>
+  </si>
+  <si>
+    <t>Factibilidad</t>
+  </si>
+  <si>
+    <t>a) Capacidad científico-técnica del equipo investigador</t>
+  </si>
+  <si>
+    <t>b) Plan de trabajo</t>
+  </si>
+  <si>
+    <r>
+      <t>Adecuación estratégica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (Valoración adicional por la Comisión de Adecuación Estratégica)</t>
+    </r>
+  </si>
+  <si>
+    <t>- Prevención y promoción de la salud</t>
+  </si>
+  <si>
+    <t>- Cáncer</t>
+  </si>
+  <si>
+    <t>- Salud Mental</t>
+  </si>
+  <si>
+    <t>- Enfermedades neurológicas y neurodegenerativas</t>
+  </si>
+  <si>
+    <t>- Atención a las Urgencias tiempo/dependientes</t>
+  </si>
+  <si>
+    <t>- Enfermedades vasculares y endocrinas</t>
+  </si>
+  <si>
+    <t>- Enfermedades respiratorias</t>
+  </si>
+  <si>
+    <t>- Pacientes pluri-patológicos</t>
+  </si>
+  <si>
+    <t>- Cuidados paliativos</t>
+  </si>
+  <si>
+    <t>- Dolor</t>
+  </si>
+  <si>
+    <t>- Seguridad de los pacientes</t>
+  </si>
+  <si>
+    <t>- Salud y género</t>
+  </si>
+  <si>
+    <t>- Enfermedades transmisibles</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>Méritos curriculares del candidato (A)</t>
+  </si>
+  <si>
+    <t>Valoración de publicaciones en CV</t>
+  </si>
+  <si>
+    <t>Participación en proyectos de investigación</t>
+  </si>
+  <si>
+    <t>Otras contribuciones al desarrollo clínico y asistencial</t>
+  </si>
+  <si>
+    <t>Valoración estratégica de la propuesta (B)</t>
+  </si>
+  <si>
+    <t>Interés estratégico del proyecto de investigación</t>
+  </si>
+  <si>
+    <t>Concordancia con artículo 51 Ley Foral 17/2019</t>
+  </si>
+  <si>
+    <t>Interés estratégico para Departamento de Salud-Osasunbidea</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>a) Valoración de las publicaciones en el CV</t>
+  </si>
+  <si>
+    <t>- Por cada publicación indexada en JCR (primer autor/a, último autor/a, autor/a de correspondencia)</t>
+  </si>
+  <si>
+    <t>4 puntos cada una</t>
+  </si>
+  <si>
+    <t>- Por cada otra autoría en publicaciones indexadas en JCR</t>
+  </si>
+  <si>
+    <t>2 puntos cada una</t>
+  </si>
+  <si>
+    <t>b) Participación en proyectos de investigación</t>
+  </si>
+  <si>
+    <t>- Como investigador/a principal:</t>
+  </si>
+  <si>
+    <t>- Proyecto de ámbito europeo</t>
+  </si>
+  <si>
+    <t>1.5 puntos por participación</t>
+  </si>
+  <si>
+    <t>- Proyecto de ámbito nacional</t>
+  </si>
+  <si>
+    <t>1 punto por participación</t>
+  </si>
+  <si>
+    <t>- Proyecto de ámbito regional</t>
+  </si>
+  <si>
+    <t>0.6 puntos por participación</t>
+  </si>
+  <si>
+    <t>- Como investigador/a colaborador/a:</t>
+  </si>
+  <si>
+    <t>0.5 puntos por participación</t>
+  </si>
+  <si>
+    <t>0.3 puntos por participación</t>
+  </si>
+  <si>
+    <t>0.15 puntos por participación</t>
+  </si>
+  <si>
+    <t>c) Otras contribuciones al desarrollo clínico, asistencial o tecnológico del sistema sanitario</t>
+  </si>
+  <si>
+    <t>- Tesis doctoral relacionada con la actividad investigadora</t>
+  </si>
+  <si>
+    <t>4 puntos por cada tesis</t>
+  </si>
+  <si>
+    <t>- Dirección de tesis doctoral relacionada con la actividad investigadora</t>
+  </si>
+  <si>
+    <t>0.5 punto por cada tesis dirigida</t>
+  </si>
+  <si>
+    <t>- Máster relacionado con la actividad investigadora</t>
+  </si>
+  <si>
+    <t>1 punto por cada máster</t>
+  </si>
+  <si>
+    <t>- Dirección de Trabajo de Fin de Master relacionado con la actividad investigadora</t>
+  </si>
+  <si>
+    <t>0.15 punto por cada TFM</t>
+  </si>
+  <si>
+    <t>- Patente o derechos de autor</t>
+  </si>
+  <si>
+    <t>4 puntos por cada patente o derecho de autor</t>
+  </si>
+  <si>
+    <t>- Trabajo presentado en congresos:</t>
+  </si>
+  <si>
+    <t>- Congreso internacional</t>
+  </si>
+  <si>
+    <t>0.30 puntos por cada trabajo</t>
+  </si>
+  <si>
+    <t>- Congreso nacional</t>
+  </si>
+  <si>
+    <t>0.15 puntos por cada trabajo</t>
+  </si>
+  <si>
+    <t>- Pertenencia a comisiones asesoras técnicas o comités científicos, técnicos o asesores</t>
+  </si>
+  <si>
+    <t>- Nacionales o internacionales</t>
+  </si>
+  <si>
+    <t>0.30 puntos por cada pertenencia</t>
+  </si>
+  <si>
+    <t>- A nivel de Comunidad Autónoma</t>
+  </si>
+  <si>
+    <t>0.15 puntos por cada pertenencia</t>
+  </si>
+  <si>
+    <t>- A nivel de centro asistencial o Sociedad científica</t>
+  </si>
+  <si>
+    <t>0.10 puntos por cada pertenencia</t>
+  </si>
+  <si>
+    <t>- Participación como autor en guías de práctica clínica, protocolos de atención en salud, proyectos de innovación sanitaria o documentos científicos y técnicos</t>
+  </si>
+  <si>
+    <t>0.20 puntos por cada participación</t>
+  </si>
+  <si>
+    <t>a) Interés estratégico del proyecto de investigación según el Plan de Salud 2014-2020 y la necesidad de investigación en enfermedades transmisibles</t>
+  </si>
+  <si>
+    <t>Hasta 10 puntos</t>
+  </si>
+  <si>
+    <t>b) Concordancia del proyecto de investigación con el artículo 51 de la Ley Foral 17/2019, de igualdad entre mujeres y hombres</t>
+  </si>
+  <si>
+    <t>Hasta 5 puntos</t>
+  </si>
+  <si>
+    <t>c) Interés estratégico de la propuesta para el Departamento de Salud-Osasunbidea: Pertenencia de profesionales de la unidad asistencial a estructuras de investigación</t>
+  </si>
+  <si>
+    <t>Hasta 15 puntos</t>
+  </si>
+  <si>
+    <t>- Pertenencia a IdisNa</t>
+  </si>
+  <si>
+    <t>7 puntos</t>
+  </si>
+  <si>
+    <t>- Pertenencia a un Centro de Investigación Biomédica (CIBER)</t>
+  </si>
+  <si>
+    <t>4 puntos</t>
+  </si>
+  <si>
+    <t>- Pertenencia a una Red de Investigación Cooperativa Orientada a Resultados en Salud (RICOR)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,6 +1406,29 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1161,27 +1468,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1192,8 +1486,76 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1471,11 +1833,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q65"/>
   <sheetViews>
-    <sheetView topLeftCell="K31" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30:P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,54 +1853,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="10"/>
+      <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="M2" s="6" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="M2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9">
+      <c r="E3" s="11"/>
+      <c r="F3" s="3">
         <v>30</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="P3" t="s">
@@ -1552,10 +1914,10 @@
       <c r="C4" s="1">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="J4" t="s">
@@ -1581,10 +1943,10 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="J5" t="s">
@@ -1593,7 +1955,7 @@
       <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1604,10 +1966,10 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="J6" t="s">
@@ -1629,10 +1991,10 @@
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="J7" t="s">
@@ -1641,17 +2003,17 @@
       <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
@@ -1673,10 +2035,10 @@
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
@@ -1685,15 +2047,15 @@
       <c r="K9" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="J10" t="s">
         <v>25</v>
       </c>
@@ -1711,15 +2073,15 @@
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9">
+      <c r="E11" s="11"/>
+      <c r="F11" s="3">
         <v>70</v>
       </c>
       <c r="J11" t="s">
@@ -1728,7 +2090,7 @@
       <c r="K11" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1739,13 +2101,13 @@
       <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>15</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="4">
         <v>8</v>
       </c>
       <c r="O12" t="s">
@@ -1765,16 +2127,16 @@
       <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>15</v>
       </c>
       <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1785,10 +2147,10 @@
       <c r="C14" s="1">
         <v>15</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>8</v>
       </c>
       <c r="O14" t="s">
@@ -1804,10 +2166,10 @@
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1816,7 +2178,7 @@
       <c r="K15" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="5">
         <v>10</v>
       </c>
     </row>
@@ -1824,7 +2186,7 @@
       <c r="C16" s="1">
         <v>50</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>50</v>
       </c>
       <c r="F16">
@@ -1862,7 +2224,7 @@
       </c>
     </row>
     <row r="20" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="K20" s="10">
+      <c r="K20" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1907,26 +2269,26 @@
       </c>
     </row>
     <row r="27" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="K27" s="10">
+      <c r="K27" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K30" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="3" t="s">
+      <c r="N30" s="11"/>
+      <c r="O30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P30" t="s">
@@ -1934,7 +2296,7 @@
       </c>
     </row>
     <row r="31" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="O31" t="s">
@@ -1945,7 +2307,7 @@
       </c>
     </row>
     <row r="32" spans="8:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="6" t="s">
         <v>59</v>
       </c>
       <c r="K32" t="s">
@@ -1959,21 +2321,21 @@
       </c>
     </row>
     <row r="33" spans="10:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="6" t="s">
         <v>60</v>
       </c>
       <c r="K33" t="s">
         <v>28</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="P34" t="s">
@@ -1981,7 +2343,7 @@
       </c>
     </row>
     <row r="35" spans="10:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="6" t="s">
         <v>61</v>
       </c>
       <c r="K35" t="s">
@@ -1995,7 +2357,7 @@
       </c>
     </row>
     <row r="36" spans="10:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="6" t="s">
         <v>62</v>
       </c>
       <c r="K36" t="s">
@@ -2009,7 +2371,7 @@
       </c>
     </row>
     <row r="37" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="7" t="s">
         <v>42</v>
       </c>
       <c r="O37" t="s">
@@ -2020,7 +2382,7 @@
       </c>
     </row>
     <row r="38" spans="10:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="6" t="s">
         <v>63</v>
       </c>
       <c r="K38" t="s">
@@ -2034,24 +2396,24 @@
       </c>
     </row>
     <row r="39" spans="10:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="6" t="s">
         <v>44</v>
       </c>
       <c r="K39" t="s">
         <v>28</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="10:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="K40" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="2" t="s">
         <v>84</v>
       </c>
       <c r="P40" t="s">
@@ -2059,7 +2421,7 @@
       </c>
     </row>
     <row r="41" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="7" t="s">
         <v>43</v>
       </c>
       <c r="O41" t="s">
@@ -2070,7 +2432,7 @@
       </c>
     </row>
     <row r="42" spans="10:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="6" t="s">
         <v>50</v>
       </c>
       <c r="K42" t="s">
@@ -2084,7 +2446,7 @@
       </c>
     </row>
     <row r="43" spans="10:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="6" t="s">
         <v>45</v>
       </c>
       <c r="K43" t="s">
@@ -2098,22 +2460,22 @@
       </c>
     </row>
     <row r="44" spans="10:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="6" t="s">
         <v>51</v>
       </c>
       <c r="K44" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="11">
+      <c r="P44" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J45" s="12"/>
-      <c r="K45" s="10">
+      <c r="J45" s="6"/>
+      <c r="K45" s="4">
         <v>7</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="2" t="s">
         <v>88</v>
       </c>
       <c r="P45" t="s">
@@ -2143,18 +2505,18 @@
       </c>
     </row>
     <row r="48" spans="10:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="6" t="s">
         <v>52</v>
       </c>
       <c r="K48" t="s">
         <v>28</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P48" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="6" t="s">
         <v>53</v>
       </c>
       <c r="K49" t="s">
@@ -2162,7 +2524,7 @@
       </c>
     </row>
     <row r="50" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="6" t="s">
         <v>54</v>
       </c>
       <c r="K50" t="s">
@@ -2170,7 +2532,7 @@
       </c>
     </row>
     <row r="51" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J51" s="12" t="s">
+      <c r="J51" s="6" t="s">
         <v>58</v>
       </c>
       <c r="K51" t="s">
@@ -2178,7 +2540,7 @@
       </c>
     </row>
     <row r="52" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="6" t="s">
         <v>55</v>
       </c>
       <c r="K52" t="s">
@@ -2186,7 +2548,7 @@
       </c>
     </row>
     <row r="53" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="6" t="s">
         <v>56</v>
       </c>
       <c r="K53" t="s">
@@ -2194,7 +2556,7 @@
       </c>
     </row>
     <row r="54" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J54" s="12" t="s">
+      <c r="J54" s="6" t="s">
         <v>57</v>
       </c>
       <c r="K54" t="s">
@@ -2202,7 +2564,7 @@
       </c>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="K55" s="10">
+      <c r="K55" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2215,7 +2577,7 @@
       </c>
     </row>
     <row r="58" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J58" s="14" t="s">
+      <c r="J58" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K58" t="s">
@@ -2223,7 +2585,7 @@
       </c>
     </row>
     <row r="59" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J59" s="14" t="s">
+      <c r="J59" s="8" t="s">
         <v>65</v>
       </c>
       <c r="K59" t="s">
@@ -2231,7 +2593,7 @@
       </c>
     </row>
     <row r="60" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J60" s="14" t="s">
+      <c r="J60" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K60" t="s">
@@ -2239,7 +2601,7 @@
       </c>
     </row>
     <row r="61" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J61" s="14" t="s">
+      <c r="J61" s="8" t="s">
         <v>67</v>
       </c>
       <c r="K61" t="s">
@@ -2247,7 +2609,7 @@
       </c>
     </row>
     <row r="62" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J62" s="14" t="s">
+      <c r="J62" s="8" t="s">
         <v>68</v>
       </c>
       <c r="K62" t="s">
@@ -2255,7 +2617,7 @@
       </c>
     </row>
     <row r="63" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J63" s="14" t="s">
+      <c r="J63" s="8" t="s">
         <v>69</v>
       </c>
       <c r="K63" t="s">
@@ -2263,7 +2625,7 @@
       </c>
     </row>
     <row r="64" spans="10:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="J64" s="14" t="s">
+      <c r="J64" s="8" t="s">
         <v>70</v>
       </c>
       <c r="K64" t="s">
@@ -2271,7 +2633,7 @@
       </c>
     </row>
     <row r="65" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K65" s="10">
+      <c r="K65" s="4">
         <v>15</v>
       </c>
     </row>
@@ -2296,15 +2658,794 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="17">
+        <v>50</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="19">
+        <v>25</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="17">
+        <v>20</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="17">
+        <v>15</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="17">
+        <v>15</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="16">
+        <v>25</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="17">
+        <v>15</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="17">
+        <v>10</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F8D954-17B5-413A-AC0B-0972750E73C5}">
+  <dimension ref="B2:F48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="28">
+        <v>70</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="29">
+        <v>40</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="29">
+        <v>10</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="29">
+        <v>20</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="E7" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="30">
+        <v>30</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="E9" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="25">
+        <v>10</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="25">
+        <v>10</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="25">
+        <v>10</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="25">
+        <v>10</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="25">
+        <v>10</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="25">
+        <v>10</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="25">
+        <v>10</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="25">
+        <v>10</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="25">
+        <v>10</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="25">
+        <v>10</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="25">
+        <v>10</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="25">
+        <v>10</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="31">
+        <v>5</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="31">
+        <v>15</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="E24" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="21">
+        <v>100</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E26" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E27" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E28" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="E29" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E30" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="E31" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E32" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E35" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E36" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E37" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E38" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E39" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E42" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E43" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="E44" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="E45" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="E47" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="E48" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="25"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>